--- a/Resources/Temp_file.xlsx
+++ b/Resources/Temp_file.xlsx
@@ -418,34 +418,34 @@
         <v>Sep-22</v>
       </c>
       <c r="E1" t="str">
+        <v>Aug-22</v>
+      </c>
+      <c r="F1" t="str">
         <v>Resource</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>May-20</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>Jan-21</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Feb-21</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Mar-21</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>Apr-21</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>May-21</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>Jun-21</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>Jul-21</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Aug-22</v>
       </c>
       <c r="O1" t="str">
         <v>Oct-22</v>
@@ -459,9 +459,12 @@
         <v>186</v>
       </c>
       <c r="C2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D2">
+        <v>186</v>
+      </c>
+      <c r="E2">
         <v>186</v>
       </c>
     </row>
@@ -478,6 +481,9 @@
       <c r="D3">
         <v>150</v>
       </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -492,6 +498,9 @@
       <c r="D4">
         <v>150</v>
       </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -506,6 +515,9 @@
       <c r="D5">
         <v>190</v>
       </c>
+      <c r="E5">
+        <v>190</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -520,6 +532,9 @@
       <c r="D6">
         <v>130</v>
       </c>
+      <c r="E6">
+        <v>130</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -534,6 +549,9 @@
       <c r="D7">
         <v>160</v>
       </c>
+      <c r="E7">
+        <v>160</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8">
@@ -545,35 +563,35 @@
       <c r="D8">
         <v>160</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8">
+        <v>168</v>
+      </c>
+      <c r="F8" t="str">
         <v>ABO UIUX Web</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>7700400.36</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>152</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>154</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>168</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>173</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>88</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>152</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>208</v>
-      </c>
-      <c r="N8">
-        <v>168</v>
       </c>
       <c r="O8">
         <v>188.5</v>
